--- a/publication/analyses/outputs/rmse_z/gdpt_bin-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_bin-z_rmse-z.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,79 +573,79 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>57.04395604395604</v>
+        <v>19.08333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9270407300491859</v>
+        <v>0.7932780847926916</v>
       </c>
       <c r="E2" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.78104107878721</v>
+        <v>-46.90072001011811</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002923743527917499</v>
+        <v>0.002925869579967151</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0391752516396885</v>
+        <v>-0.03917356029566955</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.80828328593273</v>
+        <v>-47.80829537787529</v>
       </c>
       <c r="J2" t="n">
-        <v>1.027242207145519</v>
+        <v>0.90757536775718</v>
       </c>
       <c r="K2" t="n">
-        <v>1.127914484126845</v>
+        <v>0.9608142213030992</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.281935324460322e-14</v>
+        <v>1.617205597832023e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>3.155717445599374e-14</v>
+        <v>5.604775902649332e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.949777147726302</v>
+        <v>0.7230257079327961</v>
       </c>
       <c r="O2" t="n">
-        <v>8.191249876190441e-15</v>
+        <v>1.58823571578321e-15</v>
       </c>
       <c r="P2" t="n">
-        <v>40.37362637362637</v>
+        <v>42.55555555555556</v>
       </c>
       <c r="Q2" t="n">
-        <v>359.4191284054235</v>
+        <v>376.3654689950818</v>
       </c>
       <c r="R2" t="n">
-        <v>420.092884459575</v>
+        <v>318.1936049868803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.337665005828574</v>
+        <v>0.8325428420290381</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.244604886843885</v>
+        <v>0.1093262981991534</v>
       </c>
       <c r="V2" t="n">
-        <v>1.649054303688258</v>
+        <v>1.140570364444535</v>
       </c>
       <c r="W2" t="n">
-        <v>46.78104107878721</v>
+        <v>46.90072001011811</v>
       </c>
       <c r="X2" t="n">
-        <v>1.540811763116715</v>
+        <v>1.086484611736163</v>
       </c>
       <c r="Y2" t="n">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
         <v>264</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3446969696969697</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="3">
@@ -656,79 +656,79 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>177.3111111111111</v>
+        <v>73.86</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9419889414367696</v>
+        <v>0.854538264240035</v>
       </c>
       <c r="E3" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-42.75764053346416</v>
+        <v>-42.49901258206668</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02975120891287799</v>
+        <v>0.02975120514449314</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03411911582462523</v>
+        <v>-0.03411911892645469</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.14635805364573</v>
+        <v>-43.14635803198964</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3887175201815664</v>
+        <v>0.6473454499229651</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8559698416225616</v>
+        <v>0.8523004735927582</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1277753510598876</v>
+        <v>-5.198508290504833e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>0.024651802360803</v>
+        <v>1.27897692436818e-15</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9846163042500736</v>
+        <v>0.708937853599663</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03390329869790391</v>
+        <v>8.260059303211165e-16</v>
       </c>
       <c r="P3" t="n">
-        <v>42.61111111111111</v>
+        <v>43.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>361.6031857283522</v>
+        <v>387.2084870468682</v>
       </c>
       <c r="R3" t="n">
-        <v>395.594361765063</v>
+        <v>326.9743937398573</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.508609571809192</v>
+        <v>0.8106770769200111</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.08753824564926192</v>
+        <v>0.2097184501099074</v>
       </c>
       <c r="V3" t="n">
-        <v>1.812426099275795</v>
+        <v>1.144437259785718</v>
       </c>
       <c r="W3" t="n">
-        <v>42.75764053346416</v>
+        <v>42.49901258206668</v>
       </c>
       <c r="X3" t="n">
-        <v>1.268589236225815</v>
+        <v>1.065966222597873</v>
       </c>
       <c r="Y3" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Z3" t="n">
         <v>264</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3409090909090909</v>
+        <v>0.1893939393939394</v>
       </c>
     </row>
     <row r="4">
@@ -739,79 +739,79 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>299.6756756756757</v>
+        <v>146.9393939393939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9300557985062765</v>
+        <v>0.9105651613797772</v>
       </c>
       <c r="E4" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.70504820925123</v>
+        <v>-37.18989704499584</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02759764840439902</v>
+        <v>0.02759764808920894</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05464248323543681</v>
+        <v>-0.05464248348030294</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.68518844029698</v>
+        <v>-37.68518843851261</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.01985976895425427</v>
+        <v>0.4952913935167743</v>
       </c>
       <c r="K4" t="n">
-        <v>1.324637674287198</v>
+        <v>0.7227057654237526</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1488845550623895</v>
+        <v>8.408425471047436e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03429895534688888</v>
+        <v>4.909204356160692e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9844780380058951</v>
+        <v>0.6324368837421489</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1175845974037962</v>
+        <v>2.176709990704474e-15</v>
       </c>
       <c r="P4" t="n">
-        <v>48.51351351351352</v>
+        <v>37.96969696969697</v>
       </c>
       <c r="Q4" t="n">
-        <v>406.20512976726</v>
+        <v>342.468569408854</v>
       </c>
       <c r="R4" t="n">
-        <v>331.5931533647525</v>
+        <v>329.8659482909233</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-1.634658139453376</v>
+        <v>0.792961487828917</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.266017008896124</v>
+        <v>0.1478526822879432</v>
       </c>
       <c r="V4" t="n">
-        <v>1.918820594016122</v>
+        <v>1.051293417977728</v>
       </c>
       <c r="W4" t="n">
-        <v>37.70504820925123</v>
+        <v>37.18989704499584</v>
       </c>
       <c r="X4" t="n">
-        <v>1.760795982763677</v>
+        <v>0.9050259918060931</v>
       </c>
       <c r="Y4" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Z4" t="n">
         <v>264</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2803030303030303</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -822,79 +822,79 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0630630630631</v>
+        <v>238.494623655914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9498854568360434</v>
+        <v>0.9309111166570635</v>
       </c>
       <c r="E5" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.3212183687231</v>
+        <v>-32.50493494491119</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02209911729115602</v>
+        <v>0.02209911768191607</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04824725386150343</v>
+        <v>-0.04824725354902708</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.98388033301514</v>
+        <v>-32.98388033521916</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3373380357079672</v>
+        <v>0.4789453903079686</v>
       </c>
       <c r="K5" t="n">
-        <v>1.006780692367773</v>
+        <v>0.9101096618526112</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.042010204571819e-14</v>
+        <v>2.116526786569001e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>2.080417920018311e-14</v>
+        <v>-2.619171307556552e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7653683690138954</v>
+        <v>0.5023650703916545</v>
       </c>
       <c r="O5" t="n">
-        <v>-2.256453282481399e-15</v>
+        <v>-4.896919190335906e-15</v>
       </c>
       <c r="P5" t="n">
-        <v>50.4054054054054</v>
+        <v>32.72043010752688</v>
       </c>
       <c r="Q5" t="n">
-        <v>430.4513941361135</v>
+        <v>300.1454988886014</v>
       </c>
       <c r="R5" t="n">
-        <v>380.2679951875983</v>
+        <v>341.3006134074087</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.629986659543414</v>
+        <v>0.7857853943950058</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.4285208013475492</v>
+        <v>0.131776711553561</v>
       </c>
       <c r="V5" t="n">
-        <v>1.905772592216892</v>
+        <v>0.9938816832455084</v>
       </c>
       <c r="W5" t="n">
-        <v>33.3212183687231</v>
+        <v>32.50493494491119</v>
       </c>
       <c r="X5" t="n">
-        <v>1.327860424350207</v>
+        <v>1.193462778005285</v>
       </c>
       <c r="Y5" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="Z5" t="n">
         <v>264</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4204545454545455</v>
+        <v>0.3522727272727273</v>
       </c>
     </row>
     <row r="6">
@@ -905,79 +905,79 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>588.4432432432433</v>
+        <v>340.4411764705882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9631861999737951</v>
+        <v>0.950824503661702</v>
       </c>
       <c r="E6" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-29.23848897163445</v>
+        <v>-28.20884603017141</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01600227755264895</v>
+        <v>0.01600227676446048</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05433348803424662</v>
+        <v>-0.0543334886667961</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.40995576800576</v>
+        <v>-28.40995576350307</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.8285332036286941</v>
+        <v>0.2011097333316653</v>
       </c>
       <c r="K6" t="n">
-        <v>0.990249381721266</v>
+        <v>0.6790995761445672</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06402229086600592</v>
+        <v>-3.139373292916772e-15</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.05280903699071172</v>
+        <v>3.204272359429787e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5662936690871136</v>
+        <v>0.4437365204154285</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04034678146569417</v>
+        <v>2.204119240064649e-16</v>
       </c>
       <c r="P6" t="n">
-        <v>46.41621621621621</v>
+        <v>33.80392156862745</v>
       </c>
       <c r="Q6" t="n">
-        <v>408.1804602985899</v>
+        <v>308.9579740972517</v>
       </c>
       <c r="R6" t="n">
-        <v>381.1921759119377</v>
+        <v>351.1323854590737</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-1.73860668807983</v>
+        <v>0.6028629534798351</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.5819072829865209</v>
+        <v>0.2321719924878092</v>
       </c>
       <c r="V6" t="n">
-        <v>1.973602029882339</v>
+        <v>0.8344419590491764</v>
       </c>
       <c r="W6" t="n">
-        <v>29.23848897163445</v>
+        <v>28.20884603017141</v>
       </c>
       <c r="X6" t="n">
-        <v>1.190727813519808</v>
+        <v>0.8988783680091604</v>
       </c>
       <c r="Y6" t="n">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="Z6" t="n">
         <v>264</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7007575757575758</v>
+        <v>0.3863636363636364</v>
       </c>
     </row>
     <row r="7">
@@ -988,79 +988,79 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>812.4545454545455</v>
+        <v>438.7956989247312</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9692010855443697</v>
+        <v>0.957004816534997</v>
       </c>
       <c r="E7" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-23.68956647791552</v>
+        <v>-22.7248436506576</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01384438790168386</v>
+        <v>0.01384437554565771</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05995686451854768</v>
+        <v>-0.05995687440136698</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.86769736418611</v>
+        <v>-22.86769729371632</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.8218691137294142</v>
+        <v>0.1428536430587213</v>
       </c>
       <c r="K7" t="n">
-        <v>1.022472122670449</v>
+        <v>0.7009225476526698</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03360220446348001</v>
+        <v>-1.871740516462132e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05519301817331737</v>
+        <v>1.259010816747905e-13</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4004220818002423</v>
+        <v>0.3774330828595238</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.02567110814766773</v>
+        <v>-1.014719968743423e-16</v>
       </c>
       <c r="P7" t="n">
-        <v>45.86602870813397</v>
+        <v>30.19354838709678</v>
       </c>
       <c r="Q7" t="n">
-        <v>406.0726239905808</v>
+        <v>279.893024067872</v>
       </c>
       <c r="R7" t="n">
-        <v>382.0603520418309</v>
+        <v>343.2579458397653</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-1.855918762868489</v>
+        <v>0.5686043045075793</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.8844436810049029</v>
+        <v>0.2086110469922577</v>
       </c>
       <c r="V7" t="n">
-        <v>2.097663632659468</v>
+        <v>0.7572030678730236</v>
       </c>
       <c r="W7" t="n">
-        <v>23.68956647791552</v>
+        <v>22.7248436506576</v>
       </c>
       <c r="X7" t="n">
-        <v>1.189810758846095</v>
+        <v>0.9049825872497775</v>
       </c>
       <c r="Y7" t="n">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="Z7" t="n">
         <v>264</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.3522727272727273</v>
       </c>
     </row>
     <row r="8">
@@ -1071,79 +1071,79 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.547169811321</v>
+        <v>541.3211009174312</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9740156755748711</v>
+        <v>0.9604512136276481</v>
       </c>
       <c r="E8" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-19.07001529617482</v>
+        <v>-18.28368566000468</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.005241924242874133</v>
+        <v>-0.00524192363183366</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0223796536969658</v>
+        <v>0.02237965419872463</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.20520396641349</v>
+        <v>-18.20520397000869</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.8648113297613277</v>
+        <v>-0.07848168999599003</v>
       </c>
       <c r="K8" t="n">
-        <v>1.016522693931014</v>
+        <v>0.7492642670509444</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.03535433292665713</v>
+        <v>-1.165535557975862e-13</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05516380501300116</v>
+        <v>-1.486425661455708e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3076604877786085</v>
+        <v>0.2311401891000953</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.02915238829106296</v>
+        <v>-2.052384765706138e-16</v>
       </c>
       <c r="P8" t="n">
-        <v>46.7688679245283</v>
+        <v>37.70642201834863</v>
       </c>
       <c r="Q8" t="n">
-        <v>413.418755656326</v>
+        <v>339.245936950196</v>
       </c>
       <c r="R8" t="n">
-        <v>377.8190685537978</v>
+        <v>345.1951362047113</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-1.913455713937114</v>
+        <v>0.5785753915199859</v>
       </c>
       <c r="U8" t="n">
-        <v>-1.039485966037655</v>
+        <v>0.06241510849663894</v>
       </c>
       <c r="V8" t="n">
-        <v>2.192300582843065</v>
+        <v>0.6144610128828072</v>
       </c>
       <c r="W8" t="n">
-        <v>19.07001529617482</v>
+        <v>18.28368566000468</v>
       </c>
       <c r="X8" t="n">
-        <v>1.237922928768416</v>
+        <v>0.9676431776646485</v>
       </c>
       <c r="Y8" t="n">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="Z8" t="n">
         <v>264</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.803030303030303</v>
+        <v>0.4128787878787879</v>
       </c>
     </row>
     <row r="9">
@@ -1154,79 +1154,79 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>1255.039603960396</v>
+        <v>660.8389830508474</v>
       </c>
       <c r="D9" t="n">
-        <v>0.974047642606902</v>
+        <v>0.9506275392327203</v>
       </c>
       <c r="E9" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.32789163421157</v>
+        <v>-13.91219978844646</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002177222657297243</v>
+        <v>0.002177137551666867</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04229337274968221</v>
+        <v>0.04229329301962414</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.53538260579001</v>
+        <v>-13.53538203551962</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.7925090284215667</v>
+        <v>-0.3768177529268394</v>
       </c>
       <c r="K9" t="n">
-        <v>1.006858665683771</v>
+        <v>0.9625137632566577</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.03599861129536799</v>
+        <v>-3.414406234207367e-14</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05566745868074347</v>
+        <v>-2.005081599812433e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3098639430360192</v>
+        <v>0.2258173217772441</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.05384774656648832</v>
+        <v>9.860285845823424e-16</v>
       </c>
       <c r="P9" t="n">
-        <v>46.01485148514851</v>
+        <v>39.04237288135593</v>
       </c>
       <c r="Q9" t="n">
-        <v>406.9166318264236</v>
+        <v>353.2457201293944</v>
       </c>
       <c r="R9" t="n">
-        <v>365.4494354995197</v>
+        <v>338.7062270660511</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-1.918622590743497</v>
+        <v>0.4973196201573745</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.9797003552068015</v>
+        <v>0.1571337608330405</v>
       </c>
       <c r="V9" t="n">
-        <v>2.174881532219402</v>
+        <v>0.5599065373738429</v>
       </c>
       <c r="W9" t="n">
-        <v>14.32789163421157</v>
+        <v>13.91219978844646</v>
       </c>
       <c r="X9" t="n">
-        <v>1.247317254979025</v>
+        <v>1.296483048959996</v>
       </c>
       <c r="Y9" t="n">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="Z9" t="n">
         <v>264</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7651515151515151</v>
+        <v>0.446969696969697</v>
       </c>
     </row>
     <row r="10">
@@ -1237,79 +1237,79 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="C10" t="n">
-        <v>1448.441176470588</v>
+        <v>792.0307692307692</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9650780376148567</v>
+        <v>0.9516766160090739</v>
       </c>
       <c r="E10" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.88594027154565</v>
+        <v>-8.770071232125527</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01106733110412552</v>
+        <v>-0.01106738553129996</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1136202864885391</v>
+        <v>0.1136202201420725</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.412366556792774</v>
+        <v>-8.412366102243347</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.4735737147528756</v>
+        <v>-0.3577051298821807</v>
       </c>
       <c r="K10" t="n">
-        <v>1.315717133083394</v>
+        <v>1.205105691564066</v>
       </c>
       <c r="L10" t="n">
-        <v>2.05619018543794e-14</v>
+        <v>-8.892374016620754e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>-3.017586180931176e-14</v>
+        <v>6.361577931102147e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2830465514791949</v>
+        <v>0.1805732881740919</v>
       </c>
       <c r="O10" t="n">
-        <v>-2.407877818701736e-15</v>
+        <v>1.692663103697739e-15</v>
       </c>
       <c r="P10" t="n">
-        <v>45.71176470588235</v>
+        <v>37.22307692307692</v>
       </c>
       <c r="Q10" t="n">
-        <v>403.7952838089137</v>
+        <v>338.3551314085104</v>
       </c>
       <c r="R10" t="n">
-        <v>385.8332255872531</v>
+        <v>329.1440472277671</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.911271528828384</v>
+        <v>0.3414321040027401</v>
       </c>
       <c r="U10" t="n">
-        <v>-1.079309634392769</v>
+        <v>0.05403369938791366</v>
       </c>
       <c r="V10" t="n">
-        <v>2.211875773003908</v>
+        <v>0.3816975259745489</v>
       </c>
       <c r="W10" t="n">
-        <v>8.88594027154565</v>
+        <v>8.770071232125527</v>
       </c>
       <c r="X10" t="n">
-        <v>1.59408568229223</v>
+        <v>1.455510266046571</v>
       </c>
       <c r="Y10" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="Z10" t="n">
         <v>264</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6439393939393939</v>
+        <v>0.4924242424242424</v>
       </c>
     </row>
     <row r="11">
@@ -1320,79 +1320,79 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="C11" t="n">
-        <v>1638.300518134715</v>
+        <v>918.9545454545455</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9529772946772785</v>
+        <v>0.9182814687531987</v>
       </c>
       <c r="E11" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.403674729630133</v>
+        <v>-5.065921732090943</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04125131100947362</v>
+        <v>-0.04125131145916728</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1533494380834554</v>
+        <v>0.1533494374243509</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.162115879123986</v>
+        <v>-4.162115875665233</v>
       </c>
       <c r="J11" t="n">
-        <v>1.758441149493853</v>
+        <v>-0.9038058564257099</v>
       </c>
       <c r="K11" t="n">
-        <v>2.77292246868337</v>
+        <v>1.6742955162757</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.241068272905591e-13</v>
+        <v>-4.553680664865955e-14</v>
       </c>
       <c r="M11" t="n">
-        <v>-5.695365020127112e-14</v>
+        <v>4.779812909108924e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2613952901033018</v>
+        <v>0.1462828081348731</v>
       </c>
       <c r="O11" t="n">
-        <v>-4.176279356880123e-16</v>
+        <v>-6.379051327569259e-16</v>
       </c>
       <c r="P11" t="n">
-        <v>46.63730569948186</v>
+        <v>41.31818181818182</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.4191052654609</v>
+        <v>368.8871981160788</v>
       </c>
       <c r="R11" t="n">
-        <v>377.476763535822</v>
+        <v>334.732041582993</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.903006131368675</v>
+        <v>0.08744032037053338</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.109412641688483</v>
+        <v>0.00111273559580802</v>
       </c>
       <c r="V11" t="n">
-        <v>2.218022423622763</v>
+        <v>0.1671242412065151</v>
       </c>
       <c r="W11" t="n">
-        <v>2.403674729630133</v>
+        <v>5.065921732090943</v>
       </c>
       <c r="X11" t="n">
-        <v>3.024462070397517</v>
+        <v>1.998694583926882</v>
       </c>
       <c r="Y11" t="n">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="Z11" t="n">
         <v>264</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7310606060606061</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -1403,79 +1403,79 @@
         <v>1.900000000000006</v>
       </c>
       <c r="C12" t="n">
-        <v>1836.036458333333</v>
+        <v>1053.585034013606</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9393150550643963</v>
+        <v>0.91398464349112</v>
       </c>
       <c r="E12" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4996433204863291</v>
+        <v>1.289469809357071</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001824240180390309</v>
+        <v>0.001824279837643241</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04849804470901811</v>
+        <v>-0.0484980112397529</v>
       </c>
       <c r="I12" t="n">
         <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.999643320486329</v>
+        <v>-0.210530190642929</v>
       </c>
       <c r="K12" t="n">
-        <v>2.183680715786803</v>
+        <v>1.713734473674932</v>
       </c>
       <c r="L12" t="n">
-        <v>1.990595188683386e-14</v>
+        <v>3.098027314655015e-15</v>
       </c>
       <c r="M12" t="n">
-        <v>5.277321548508018e-14</v>
+        <v>-7.394651784322229e-14</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2622789799319464</v>
+        <v>0.1229747540238221</v>
       </c>
       <c r="O12" t="n">
-        <v>4.163336342344337e-17</v>
+        <v>-1.102670487042672e-16</v>
       </c>
       <c r="P12" t="n">
-        <v>46.921875</v>
+        <v>46.10204081632653</v>
       </c>
       <c r="Q12" t="n">
-        <v>414.7720454337403</v>
+        <v>406.2146688631774</v>
       </c>
       <c r="R12" t="n">
-        <v>401.4323854030074</v>
+        <v>378.4228500519174</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-1.913204015854235</v>
+        <v>-0.03025942090980009</v>
       </c>
       <c r="U12" t="n">
-        <v>-1.170582542270233</v>
+        <v>-0.03884740652924448</v>
       </c>
       <c r="V12" t="n">
-        <v>2.252451512934631</v>
+        <v>0.08772845719953289</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4996433204863291</v>
+        <v>-1.289469809357071</v>
       </c>
       <c r="X12" t="n">
-        <v>2.327656187731447</v>
+        <v>2.356873254820086</v>
       </c>
       <c r="Y12" t="n">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="Z12" t="n">
         <v>264</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5568181818181818</v>
       </c>
     </row>
     <row r="13">
@@ -1486,79 +1486,79 @@
         <v>6.900000000000006</v>
       </c>
       <c r="C13" t="n">
-        <v>1956.06976744186</v>
+        <v>1191.027777777778</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9469621176405304</v>
+        <v>0.9384829341389085</v>
       </c>
       <c r="E13" t="n">
-        <v>6.900000000000007</v>
+        <v>6.900000000000006</v>
       </c>
       <c r="F13" t="n">
-        <v>4.071013206674245</v>
+        <v>6.266042059070152</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01024690393479685</v>
+        <v>-0.01024693172177785</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.06685347852398409</v>
+        <v>-0.06685350028273637</v>
       </c>
       <c r="I13" t="n">
-        <v>6.883590418386336</v>
+        <v>6.883590571785827</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.812577211712092</v>
+        <v>-0.6175485127156753</v>
       </c>
       <c r="K13" t="n">
-        <v>2.812577211712092</v>
+        <v>0.9885469851607485</v>
       </c>
       <c r="L13" t="n">
-        <v>-3.370946932443266e-14</v>
+        <v>7.895073483865644e-14</v>
       </c>
       <c r="M13" t="n">
-        <v>2.792606262515166e-14</v>
+        <v>1.315941954170717e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2963278638711188</v>
+        <v>0.1714584245619896</v>
       </c>
       <c r="O13" t="n">
-        <v>-9.036699037646623e-17</v>
+        <v>1.171902081548776e-16</v>
       </c>
       <c r="P13" t="n">
-        <v>47.23255813953488</v>
+        <v>45.13888888888889</v>
       </c>
       <c r="Q13" t="n">
-        <v>414.1556761202574</v>
+        <v>400.9806651708062</v>
       </c>
       <c r="R13" t="n">
-        <v>368.1024507405254</v>
+        <v>372.7240198476663</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.844198040374122</v>
+        <v>0.1612452857019135</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.013187523456353</v>
+        <v>0.01730208067953999</v>
       </c>
       <c r="V13" t="n">
-        <v>2.121293918051583</v>
+        <v>0.248130177836569</v>
       </c>
       <c r="W13" t="n">
-        <v>-4.071013206674245</v>
+        <v>-6.266042059070152</v>
       </c>
       <c r="X13" t="n">
-        <v>3.065243091629147</v>
+        <v>1.256902663737642</v>
       </c>
       <c r="Y13" t="n">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="Z13" t="n">
         <v>264</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1628787878787879</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="14">
@@ -1569,79 +1569,79 @@
         <v>11.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>1991.5</v>
+        <v>1315.283185840708</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9076568307843977</v>
+        <v>0.9609102276032581</v>
       </c>
       <c r="E14" t="n">
         <v>11.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>9.989504413253904</v>
+        <v>11.31045353761016</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.007359601188087311</v>
+        <v>-0.007359601509549473</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05938080550191049</v>
+        <v>-0.05938080575868231</v>
       </c>
       <c r="I14" t="n">
-        <v>12.29422759640145</v>
+        <v>12.29422759822129</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.304723183147541</v>
+        <v>-0.9837740606111255</v>
       </c>
       <c r="K14" t="n">
-        <v>2.304723183147541</v>
+        <v>1.056971515400164</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.967696838800492e-14</v>
+        <v>4.244294198299304e-14</v>
       </c>
       <c r="M14" t="n">
-        <v>4.364030504488115e-15</v>
+        <v>-8.740304448730435e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>0.205398842780407</v>
+        <v>0.2972072076323288</v>
       </c>
       <c r="O14" t="n">
-        <v>-6.063525749875855e-16</v>
+        <v>-4.676691678951987e-16</v>
       </c>
       <c r="P14" t="n">
-        <v>59.57692307692308</v>
+        <v>46.76991150442478</v>
       </c>
       <c r="Q14" t="n">
-        <v>521.6142462299662</v>
+        <v>413.0409790121368</v>
       </c>
       <c r="R14" t="n">
-        <v>335.8111202329953</v>
+        <v>396.8046948469563</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.802592764956402</v>
+        <v>0.3203910796684811</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.209124691176476</v>
+        <v>0.007113519418554932</v>
       </c>
       <c r="V14" t="n">
-        <v>2.175818186810448</v>
+        <v>0.4062293914990521</v>
       </c>
       <c r="W14" t="n">
-        <v>-9.989504413253904</v>
+        <v>-11.31045353761016</v>
       </c>
       <c r="X14" t="n">
-        <v>2.407594296741906</v>
+        <v>1.458514864465165</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="Z14" t="n">
         <v>264</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.09848484848484848</v>
+        <v>0.428030303030303</v>
       </c>
     </row>
     <row r="15">
@@ -1652,79 +1652,79 @@
         <v>16.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>2022.5</v>
+        <v>1439.487603305785</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9228518553074081</v>
+        <v>0.9620448138348656</v>
       </c>
       <c r="E15" t="n">
         <v>16.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>14.66441515977785</v>
+        <v>15.80674358694398</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009828890595763345</v>
+        <v>-0.009826763377500766</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.05093415702338815</v>
+        <v>-0.05093245158564415</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00709991454513</v>
+        <v>17.00708776609422</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.342684754767277</v>
+        <v>-1.200344179150232</v>
       </c>
       <c r="K15" t="n">
-        <v>2.342684754767277</v>
+        <v>1.238768555917368</v>
       </c>
       <c r="L15" t="n">
-        <v>4.085852027084039e-14</v>
+        <v>2.624438774657302e-14</v>
       </c>
       <c r="M15" t="n">
-        <v>-1.421230031809865e-14</v>
+        <v>-3.158997397918968e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2827576940541119</v>
+        <v>0.3924330671560307</v>
       </c>
       <c r="O15" t="n">
-        <v>5.797831350820262e-16</v>
+        <v>-1.846089855822987e-15</v>
       </c>
       <c r="P15" t="n">
-        <v>43.36111111111111</v>
+        <v>45.09090909090909</v>
       </c>
       <c r="Q15" t="n">
-        <v>389.7463564538557</v>
+        <v>399.08097123806</v>
       </c>
       <c r="R15" t="n">
-        <v>301.4472383532294</v>
+        <v>372.4693337166879</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-1.630210275547654</v>
+        <v>0.3511793363553558</v>
       </c>
       <c r="U15" t="n">
-        <v>-1.216882232063806</v>
+        <v>-0.005077881880776436</v>
       </c>
       <c r="V15" t="n">
-        <v>2.052784536617426</v>
+        <v>0.4900598872796373</v>
       </c>
       <c r="W15" t="n">
-        <v>-14.66441515977785</v>
+        <v>-15.80674358694398</v>
       </c>
       <c r="X15" t="n">
-        <v>2.501525185454291</v>
+        <v>1.609215929095408</v>
       </c>
       <c r="Y15" t="n">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="Z15" t="n">
         <v>264</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1732,82 +1732,82 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>26.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2059.5</v>
+        <v>1565</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9800283892613074</v>
+        <v>0.9569833284588368</v>
       </c>
       <c r="E16" t="n">
-        <v>26.90000000000001</v>
+        <v>21.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>26.46734317716571</v>
+        <v>20.8148706004744</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01984369002716198</v>
+        <v>-0.01293975780441944</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03645117836652089</v>
+        <v>-0.04698048052184928</v>
       </c>
       <c r="I16" t="n">
-        <v>27.84517993602328</v>
+        <v>22.14348712706708</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.377836758857566</v>
+        <v>-1.328616526592681</v>
       </c>
       <c r="K16" t="n">
-        <v>1.377836758857566</v>
+        <v>1.366140559019288</v>
       </c>
       <c r="L16" t="n">
-        <v>1.097546199223788e-15</v>
+        <v>7.06721503024181e-14</v>
       </c>
       <c r="M16" t="n">
-        <v>7.643458515688577e-15</v>
+        <v>-1.073387718071702e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3623664525527527</v>
+        <v>0.4972432997713824</v>
       </c>
       <c r="O16" t="n">
-        <v>3.973317401591185e-15</v>
+        <v>1.27030169329204e-15</v>
       </c>
       <c r="P16" t="n">
-        <v>46.61538461538461</v>
+        <v>40.27906976744186</v>
       </c>
       <c r="Q16" t="n">
-        <v>407.4477064856179</v>
+        <v>361.2383665686879</v>
       </c>
       <c r="R16" t="n">
-        <v>342.7004541943595</v>
+        <v>378.4882875407084</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.628549859542052</v>
+        <v>0.3982838635884837</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.025662767319303</v>
+        <v>0.01352066958009436</v>
       </c>
       <c r="V16" t="n">
-        <v>1.962357260621082</v>
+        <v>0.6144326302390232</v>
       </c>
       <c r="W16" t="n">
-        <v>-26.46734317716571</v>
+        <v>-20.8148706004744</v>
       </c>
       <c r="X16" t="n">
-        <v>1.48283268275798</v>
+        <v>1.730873454792027</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="Z16" t="n">
         <v>264</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.09848484848484848</v>
+        <v>0.4886363636363636</v>
       </c>
     </row>
     <row r="17">
@@ -1815,82 +1815,82 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>2140.075187969925</v>
+        <v>1684.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.968861076302116</v>
+        <v>0.9493097402142674</v>
       </c>
       <c r="E17" t="n">
-        <v>31.90000000000001</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>30.39436540655523</v>
+        <v>26.23145393174554</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01700250894167209</v>
+        <v>-0.0198440218284756</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.02774639586130525</v>
+        <v>-0.03645144604519435</v>
       </c>
       <c r="I17" t="n">
-        <v>32.6327596643745</v>
+        <v>27.84518183438559</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.238394257819271</v>
+        <v>-1.613727902640053</v>
       </c>
       <c r="K17" t="n">
-        <v>2.238394257819271</v>
+        <v>1.616847795356204</v>
       </c>
       <c r="L17" t="n">
-        <v>-2.569707187222618e-14</v>
+        <v>-3.384817678667415e-14</v>
       </c>
       <c r="M17" t="n">
-        <v>1.070522117067884e-13</v>
+        <v>-1.213777184821458e-13</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3769481619826537</v>
+        <v>0.4933142727760689</v>
       </c>
       <c r="O17" t="n">
-        <v>2.143648667095791e-15</v>
+        <v>2.305226716585325e-15</v>
       </c>
       <c r="P17" t="n">
-        <v>44.18045112781955</v>
+        <v>36.31818181818182</v>
       </c>
       <c r="Q17" t="n">
-        <v>392.1058133416021</v>
+        <v>329.4266608141708</v>
       </c>
       <c r="R17" t="n">
-        <v>388.1906648805047</v>
+        <v>394.7392425973263</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.478176025391688</v>
+        <v>0.5089573674168486</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.099511514056114</v>
+        <v>-0.04152887983481144</v>
       </c>
       <c r="V17" t="n">
-        <v>1.880749718951677</v>
+        <v>0.6904013650499269</v>
       </c>
       <c r="W17" t="n">
-        <v>-30.39436540655523</v>
+        <v>-26.23145393174554</v>
       </c>
       <c r="X17" t="n">
-        <v>2.423897579674346</v>
+        <v>1.958968205659446</v>
       </c>
       <c r="Y17" t="n">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="Z17" t="n">
         <v>264</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.5037878787878788</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -1898,82 +1898,82 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>36.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>2278.609022556391</v>
+        <v>1793.295238095238</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9573385031103695</v>
+        <v>0.9393736203055397</v>
       </c>
       <c r="E18" t="n">
-        <v>36.90000000000001</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>35.18858345727386</v>
+        <v>31.0331303253001</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01866188778991662</v>
+        <v>-0.01700462157504085</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02945516212239607</v>
+        <v>-0.02774809075181531</v>
       </c>
       <c r="I18" t="n">
-        <v>37.69292631543188</v>
+        <v>32.63277172314477</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.504342858158025</v>
+        <v>-1.599641397844666</v>
       </c>
       <c r="K18" t="n">
-        <v>2.504342858158025</v>
+        <v>1.652579053780485</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002977599260640226</v>
+        <v>2.409078227910435e-14</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.026041190334093</v>
+        <v>-4.886038663612236e-14</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5114478407680515</v>
+        <v>0.5278659890770342</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02332789507306692</v>
+        <v>-2.495358417252733e-16</v>
       </c>
       <c r="P18" t="n">
-        <v>48.83458646616541</v>
+        <v>38.6952380952381</v>
       </c>
       <c r="Q18" t="n">
-        <v>430.2533096586324</v>
+        <v>347.7468975995187</v>
       </c>
       <c r="R18" t="n">
-        <v>392.9581684006482</v>
+        <v>404.5756574650841</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-1.457626168968273</v>
+        <v>0.534133817446797</v>
       </c>
       <c r="U18" t="n">
-        <v>-1.086638201986204</v>
+        <v>-0.02563616920482534</v>
       </c>
       <c r="V18" t="n">
-        <v>1.911785546773423</v>
+        <v>0.7352264069547201</v>
       </c>
       <c r="W18" t="n">
-        <v>-35.18858345727386</v>
+        <v>-31.0331303253001</v>
       </c>
       <c r="X18" t="n">
-        <v>2.731252412085868</v>
+        <v>2.003459205954794</v>
       </c>
       <c r="Y18" t="n">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="Z18" t="n">
         <v>264</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.5037878787878788</v>
+        <v>0.3977272727272727</v>
       </c>
     </row>
     <row r="19">
@@ -1981,82 +1981,82 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>2424.225563909774</v>
+        <v>1898.191919191919</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9451449495449816</v>
+        <v>0.9176283828441666</v>
       </c>
       <c r="E19" t="n">
-        <v>41.90000000000001</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>40.00436922408922</v>
+        <v>35.97587864235943</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01676473283312252</v>
+        <v>-0.01865987549203853</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0004251732019800466</v>
+        <v>-0.02945354722412365</v>
       </c>
       <c r="I19" t="n">
-        <v>42.4389663528382</v>
+        <v>37.69291482618024</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.434597128748983</v>
+        <v>-1.717036183820818</v>
       </c>
       <c r="K19" t="n">
-        <v>2.609398952406649</v>
+        <v>1.791617171432684</v>
       </c>
       <c r="L19" t="n">
-        <v>-2.623507092438476e-14</v>
+        <v>4.952043264787643e-14</v>
       </c>
       <c r="M19" t="n">
-        <v>6.355985078271329e-14</v>
+        <v>-2.209911546687109e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6162936407852613</v>
+        <v>0.6098588409759123</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.863171271401015e-15</v>
+        <v>3.157967714489334e-15</v>
       </c>
       <c r="P19" t="n">
-        <v>46.7593984962406</v>
+        <v>40.66666666666666</v>
       </c>
       <c r="Q19" t="n">
-        <v>401.3272235145236</v>
+        <v>362.7351713934658</v>
       </c>
       <c r="R19" t="n">
-        <v>391.4915123947664</v>
+        <v>414.062742596951</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.504478761275455</v>
+        <v>0.5646756168067314</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.173841929568837</v>
+        <v>-0.02330952153411264</v>
       </c>
       <c r="V19" t="n">
-        <v>2.025896163849322</v>
+        <v>0.8227231249678147</v>
       </c>
       <c r="W19" t="n">
-        <v>-40.00436922408922</v>
+        <v>-35.97587864235943</v>
       </c>
       <c r="X19" t="n">
-        <v>2.841120308082981</v>
+        <v>2.204202810991754</v>
       </c>
       <c r="Y19" t="n">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="Z19" t="n">
         <v>264</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.5037878787878788</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="20">
@@ -2064,82 +2064,82 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>46.90000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>2566.504132231405</v>
+        <v>1979.661016949153</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9344652873287045</v>
+        <v>0.8802821411251407</v>
       </c>
       <c r="E20" t="n">
-        <v>46.90000000000001</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>44.90511154775328</v>
+        <v>41.07145186897364</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002185767324507275</v>
+        <v>-0.01676473370928322</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.01007005711401894</v>
+        <v>0.0004251725020021173</v>
       </c>
       <c r="I20" t="n">
-        <v>47.73906568297599</v>
+        <v>42.43896635786599</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.833954135222707</v>
+        <v>-1.367514488892353</v>
       </c>
       <c r="K20" t="n">
-        <v>2.844239385081153</v>
+        <v>1.421225809627208</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01826840718848871</v>
+        <v>1.697700360706468e-14</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.05591448696550287</v>
+        <v>-6.334998439199044e-14</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7655913299206756</v>
+        <v>0.622439657409577</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0116284961026515</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="P20" t="n">
-        <v>45.06611570247934</v>
+        <v>46.08474576271186</v>
       </c>
       <c r="Q20" t="n">
-        <v>386.0375567273172</v>
+        <v>408.6463560221937</v>
       </c>
       <c r="R20" t="n">
-        <v>377.0475436570862</v>
+        <v>369.5549811720006</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.342523015367771</v>
+        <v>0.4687588262514802</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.998677253309676</v>
+        <v>-0.1036109950914759</v>
       </c>
       <c r="V20" t="n">
-        <v>1.914697089572389</v>
+        <v>0.7792026098777097</v>
       </c>
       <c r="W20" t="n">
-        <v>-44.90511154775328</v>
+        <v>-41.07145186897364</v>
       </c>
       <c r="X20" t="n">
-        <v>3.059731979714331</v>
+        <v>1.841780533791043</v>
       </c>
       <c r="Y20" t="n">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="Z20" t="n">
         <v>264</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.2234848484848485</v>
       </c>
     </row>
     <row r="21">
@@ -2147,82 +2147,165 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>51.90000000000001</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>2702.392</v>
+        <v>2034.690476190476</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8771925789317013</v>
+        <v>0.8141222837156372</v>
       </c>
       <c r="E21" t="n">
-        <v>51.90000000000001</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>50.02765732499157</v>
+        <v>46.40557098219264</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01473197755920516</v>
+        <v>-0.002183831943816201</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01242683335709228</v>
+        <v>-0.01006850280493628</v>
       </c>
       <c r="I21" t="n">
-        <v>53.27214761449191</v>
+        <v>47.73905463312075</v>
       </c>
       <c r="J21" t="n">
-        <v>-3.24449028950033</v>
+        <v>-1.333483650928112</v>
       </c>
       <c r="K21" t="n">
-        <v>3.24449028950033</v>
+        <v>1.40915395977803</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07228824217546971</v>
+        <v>-4.330464558372731e-14</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.01033030815750101</v>
+        <v>6.664510213535583e-14</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8216708210879085</v>
+        <v>0.6185158512685112</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.1805640879814223</v>
+        <v>2.045982431094931e-15</v>
       </c>
       <c r="P21" t="n">
-        <v>50.48</v>
+        <v>50.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>432.1210182026599</v>
+        <v>442.7433236979189</v>
       </c>
       <c r="R21" t="n">
-        <v>401.2109114545243</v>
+        <v>319.9300009442357</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-1.114408852373304</v>
+        <v>0.4913102523507218</v>
       </c>
       <c r="U21" t="n">
-        <v>-1.047821673235402</v>
+        <v>0.1782489156719395</v>
       </c>
       <c r="V21" t="n">
-        <v>1.75735198767194</v>
+        <v>0.8261952732038851</v>
       </c>
       <c r="W21" t="n">
-        <v>-50.02765732499157</v>
+        <v>-46.40557098219264</v>
       </c>
       <c r="X21" t="n">
-        <v>3.378365189087855</v>
+        <v>1.685021605177648</v>
       </c>
       <c r="Y21" t="n">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="n">
         <v>264</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.4734848484848485</v>
+        <v>0.1590909090909091</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>51.90000000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2079.081081081081</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7395289660295988</v>
+      </c>
+      <c r="E22" t="n">
+        <v>51.90000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>51.80239757505231</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.01473220053476121</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01242665459990214</v>
+      </c>
+      <c r="I22" t="n">
+        <v>53.27214888613017</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1.469751311077852</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.612516225768224</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-6.145684561854093e-14</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5.490803007463713e-14</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6023453553380396</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.060614824642324e-15</v>
+      </c>
+      <c r="P22" t="n">
+        <v>48.02702702702702</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>421.7537953623631</v>
+      </c>
+      <c r="R22" t="n">
+        <v>330.2495573673303</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3639431253920946</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.02047277239718156</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.7386031959233379</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-51.80239757505231</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.855829616046959</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>264</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.1401515151515151</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/rmse_z/gdpt_bin-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_bin-z_rmse-z.xlsx
@@ -582,34 +582,34 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.90072001011811</v>
+        <v>-46.90071407434353</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="J2" t="n">
-        <v>0.90757536775718</v>
+        <v>0.907569210053673</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9608142213030992</v>
+        <v>0.9608092746021052</v>
       </c>
       <c r="L2" t="n">
-        <v>1.617205597832023e-14</v>
+        <v>3.278241875490393e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>5.604775902649332e-14</v>
+        <v>1.075744431804853e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7230257079327961</v>
+        <v>0.7230257105471586</v>
       </c>
       <c r="O2" t="n">
-        <v>1.58823571578321e-15</v>
+        <v>-1.973729821555834e-16</v>
       </c>
       <c r="P2" t="n">
         <v>42.55555555555556</v>
@@ -633,10 +633,10 @@
         <v>1.140570364444535</v>
       </c>
       <c r="W2" t="n">
-        <v>46.90072001011811</v>
+        <v>46.90071407434353</v>
       </c>
       <c r="X2" t="n">
-        <v>1.086484611736163</v>
+        <v>1.086478884943651</v>
       </c>
       <c r="Y2" t="n">
         <v>36</v>
@@ -665,34 +665,34 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-42.49901258206668</v>
+        <v>-42.49901262118796</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6473454499229651</v>
+        <v>0.647345482307244</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8523004735927582</v>
+        <v>0.852300498791593</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.198508290504833e-14</v>
+        <v>-1.450783937428923e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>1.27897692436818e-15</v>
+        <v>-3.277378368693462e-15</v>
       </c>
       <c r="N3" t="n">
-        <v>0.708937853599663</v>
+        <v>0.7089378535682226</v>
       </c>
       <c r="O3" t="n">
-        <v>8.260059303211165e-16</v>
+        <v>-3.552713678800501e-15</v>
       </c>
       <c r="P3" t="n">
         <v>43.82</v>
@@ -716,10 +716,10 @@
         <v>1.144437259785718</v>
       </c>
       <c r="W3" t="n">
-        <v>42.49901258206668</v>
+        <v>42.49901262118796</v>
       </c>
       <c r="X3" t="n">
-        <v>1.065966222597873</v>
+        <v>1.065966254091531</v>
       </c>
       <c r="Y3" t="n">
         <v>50</v>
@@ -748,34 +748,34 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.18989704499584</v>
+        <v>-37.18989773401302</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4952913935167743</v>
+        <v>0.4952923604619567</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7227057654237526</v>
+        <v>0.7227065295509827</v>
       </c>
       <c r="L4" t="n">
-        <v>8.408425471047436e-14</v>
+        <v>4.54224200340012e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>4.909204356160692e-14</v>
+        <v>-3.208376325556911e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6324368837421489</v>
+        <v>0.632436883213081</v>
       </c>
       <c r="O4" t="n">
-        <v>2.176709990704474e-15</v>
+        <v>-1.944572449191941e-15</v>
       </c>
       <c r="P4" t="n">
         <v>37.96969696969697</v>
@@ -799,10 +799,10 @@
         <v>1.051293417977728</v>
       </c>
       <c r="W4" t="n">
-        <v>37.18989704499584</v>
+        <v>37.18989773401302</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9050259918060931</v>
+        <v>0.9050269073473143</v>
       </c>
       <c r="Y4" t="n">
         <v>66</v>
@@ -831,34 +831,34 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-32.50493494491119</v>
+        <v>-32.50493494401351</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4789453903079686</v>
+        <v>0.4789453883566043</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9101096618526112</v>
+        <v>0.9101096607550138</v>
       </c>
       <c r="L5" t="n">
-        <v>2.116526786569001e-14</v>
+        <v>-3.056097788215485e-15</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.619171307556552e-14</v>
+        <v>-1.825540913179343e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5023650703916545</v>
+        <v>0.5023650703927995</v>
       </c>
       <c r="O5" t="n">
-        <v>-4.896919190335906e-15</v>
+        <v>-4.643836092249311e-15</v>
       </c>
       <c r="P5" t="n">
         <v>32.72043010752688</v>
@@ -882,10 +882,10 @@
         <v>0.9938816832455084</v>
       </c>
       <c r="W5" t="n">
-        <v>32.50493494491119</v>
+        <v>32.50493494401351</v>
       </c>
       <c r="X5" t="n">
-        <v>1.193462778005285</v>
+        <v>1.19346277617972</v>
       </c>
       <c r="Y5" t="n">
         <v>93</v>
@@ -914,34 +914,34 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.20884603017141</v>
+        <v>-28.20884603062486</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2011097333316653</v>
+        <v>0.2011097341234664</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6790995761445672</v>
+        <v>0.6790995764689738</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.139373292916772e-15</v>
+        <v>2.090103689251428e-15</v>
       </c>
       <c r="M6" t="n">
-        <v>3.204272359429787e-14</v>
+        <v>-3.826459846146802e-15</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4437365204154285</v>
+        <v>0.4437365204152499</v>
       </c>
       <c r="O6" t="n">
-        <v>2.204119240064649e-16</v>
+        <v>6.092620961116974e-15</v>
       </c>
       <c r="P6" t="n">
         <v>33.80392156862745</v>
@@ -965,10 +965,10 @@
         <v>0.8344419590491764</v>
       </c>
       <c r="W6" t="n">
-        <v>28.20884603017141</v>
+        <v>28.20884603062486</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8988783680091604</v>
+        <v>0.8988783687335677</v>
       </c>
       <c r="Y6" t="n">
         <v>102</v>
@@ -997,34 +997,34 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-22.7248436506576</v>
+        <v>-22.7248436800634</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723149</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1428536430587213</v>
+        <v>0.1428537280719182</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7009225476526698</v>
+        <v>0.7009225949099905</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.871740516462132e-14</v>
+        <v>-7.846889207702813e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>1.259010816747905e-13</v>
+        <v>7.525819871710409e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3774330828595238</v>
+        <v>0.3774330828518451</v>
       </c>
       <c r="O7" t="n">
-        <v>-1.014719968743423e-16</v>
+        <v>4.297637514678025e-17</v>
       </c>
       <c r="P7" t="n">
         <v>30.19354838709678</v>
@@ -1048,10 +1048,10 @@
         <v>0.7572030678730236</v>
       </c>
       <c r="W7" t="n">
-        <v>22.7248436506576</v>
+        <v>22.7248436800634</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9049825872497775</v>
+        <v>0.904982653612655</v>
       </c>
       <c r="Y7" t="n">
         <v>93</v>
@@ -1080,34 +1080,34 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.28368566000468</v>
+        <v>-18.28368565933159</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.07848168999599003</v>
+        <v>-0.07848169086044438</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7492642670509444</v>
+        <v>0.7492642664811668</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.165535557975862e-13</v>
+        <v>-1.067790096913336e-13</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.486425661455708e-14</v>
+        <v>-8.663100817747105e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2311401891000953</v>
+        <v>0.231140189099931</v>
       </c>
       <c r="O8" t="n">
-        <v>-2.052384765706138e-16</v>
+        <v>3.361734947500302e-15</v>
       </c>
       <c r="P8" t="n">
         <v>37.70642201834863</v>
@@ -1131,10 +1131,10 @@
         <v>0.6144610128828072</v>
       </c>
       <c r="W8" t="n">
-        <v>18.28368566000468</v>
+        <v>18.28368565933159</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9676431776646485</v>
+        <v>0.967643176937761</v>
       </c>
       <c r="Y8" t="n">
         <v>109</v>
@@ -1163,34 +1163,34 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.91219978844646</v>
+        <v>-13.91219990536995</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3768177529268394</v>
+        <v>-0.3768175966832853</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9625137632566577</v>
+        <v>0.9625138414884757</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.414406234207367e-14</v>
+        <v>-1.246037171747734e-14</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.005081599812433e-14</v>
+        <v>-1.469234338711041e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2258173217772441</v>
+        <v>0.2258173219790544</v>
       </c>
       <c r="O9" t="n">
-        <v>9.860285845823424e-16</v>
+        <v>3.097334065310182e-15</v>
       </c>
       <c r="P9" t="n">
         <v>39.04237288135593</v>
@@ -1214,10 +1214,10 @@
         <v>0.5599065373738429</v>
       </c>
       <c r="W9" t="n">
-        <v>13.91219978844646</v>
+        <v>13.91219990536995</v>
       </c>
       <c r="X9" t="n">
-        <v>1.296483048959996</v>
+        <v>1.296483144074149</v>
       </c>
       <c r="Y9" t="n">
         <v>118</v>
@@ -1246,34 +1246,34 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.770071232125527</v>
+        <v>-8.770071526302958</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.3577051298821807</v>
+        <v>-0.3577045452414243</v>
       </c>
       <c r="K10" t="n">
-        <v>1.205105691564066</v>
+        <v>1.205105867035409</v>
       </c>
       <c r="L10" t="n">
-        <v>-8.892374016620754e-14</v>
+        <v>-2.066381254140791e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>6.361577931102147e-14</v>
+        <v>7.220378141535268e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1805732881740919</v>
+        <v>0.1805732885291025</v>
       </c>
       <c r="O10" t="n">
-        <v>1.692663103697739e-15</v>
+        <v>-3.356289605212973e-16</v>
       </c>
       <c r="P10" t="n">
         <v>37.22307692307692</v>
@@ -1297,10 +1297,10 @@
         <v>0.3816975259745489</v>
       </c>
       <c r="W10" t="n">
-        <v>8.770071232125527</v>
+        <v>8.770071526302958</v>
       </c>
       <c r="X10" t="n">
-        <v>1.455510266046571</v>
+        <v>1.455510498652382</v>
       </c>
       <c r="Y10" t="n">
         <v>130</v>
@@ -1329,34 +1329,34 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.065921732090943</v>
+        <v>-5.065921730769785</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.9038058564257099</v>
+        <v>-0.9038058578128501</v>
       </c>
       <c r="K11" t="n">
-        <v>1.6742955162757</v>
+        <v>1.674295515759601</v>
       </c>
       <c r="L11" t="n">
-        <v>-4.553680664865955e-14</v>
+        <v>-2.09277040141842e-14</v>
       </c>
       <c r="M11" t="n">
-        <v>4.779812909108924e-14</v>
+        <v>-2.004457206277783e-15</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1462828081348731</v>
+        <v>0.14628280813259</v>
       </c>
       <c r="O11" t="n">
-        <v>-6.379051327569259e-16</v>
+        <v>9.406301495282967e-16</v>
       </c>
       <c r="P11" t="n">
         <v>41.31818181818182</v>
@@ -1380,10 +1380,10 @@
         <v>0.1671242412065151</v>
       </c>
       <c r="W11" t="n">
-        <v>5.065921732090943</v>
+        <v>5.065921730769785</v>
       </c>
       <c r="X11" t="n">
-        <v>1.998694583926882</v>
+        <v>1.998694583377929</v>
       </c>
       <c r="Y11" t="n">
         <v>110</v>
@@ -1412,34 +1412,34 @@
         <v>1.900000000000006</v>
       </c>
       <c r="F12" t="n">
-        <v>1.289469809357071</v>
+        <v>1.289469911342609</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="I12" t="n">
         <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.210530190642929</v>
+        <v>-0.2105300886573907</v>
       </c>
       <c r="K12" t="n">
-        <v>1.713734473674932</v>
+        <v>1.713734456345382</v>
       </c>
       <c r="L12" t="n">
-        <v>3.098027314655015e-15</v>
+        <v>1.638877053719095e-15</v>
       </c>
       <c r="M12" t="n">
-        <v>-7.394651784322229e-14</v>
+        <v>-1.413757621930795e-13</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1229747540238221</v>
+        <v>0.1229747540277094</v>
       </c>
       <c r="O12" t="n">
-        <v>-1.102670487042672e-16</v>
+        <v>-2.869964281343942e-17</v>
       </c>
       <c r="P12" t="n">
         <v>46.10204081632653</v>
@@ -1463,10 +1463,10 @@
         <v>0.08772845719953289</v>
       </c>
       <c r="W12" t="n">
-        <v>-1.289469809357071</v>
+        <v>-1.289469911342609</v>
       </c>
       <c r="X12" t="n">
-        <v>2.356873254820086</v>
+        <v>2.356873246789299</v>
       </c>
       <c r="Y12" t="n">
         <v>147</v>
@@ -1495,34 +1495,34 @@
         <v>6.900000000000006</v>
       </c>
       <c r="F13" t="n">
-        <v>6.266042059070152</v>
+        <v>6.266041560871217</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="I13" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.6175485127156753</v>
+        <v>-0.6175483155970837</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9885469851607485</v>
+        <v>0.9885469713755433</v>
       </c>
       <c r="L13" t="n">
-        <v>7.895073483865644e-14</v>
+        <v>1.612136350341113e-14</v>
       </c>
       <c r="M13" t="n">
-        <v>1.315941954170717e-14</v>
+        <v>6.255592751621727e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1714584245619896</v>
+        <v>0.1714584248063471</v>
       </c>
       <c r="O13" t="n">
-        <v>1.171902081548776e-16</v>
+        <v>4.913764868248378e-16</v>
       </c>
       <c r="P13" t="n">
         <v>45.13888888888889</v>
@@ -1546,10 +1546,10 @@
         <v>0.248130177836569</v>
       </c>
       <c r="W13" t="n">
-        <v>-6.266042059070152</v>
+        <v>-6.266041560871217</v>
       </c>
       <c r="X13" t="n">
-        <v>1.256902663737642</v>
+        <v>1.25690265123595</v>
       </c>
       <c r="Y13" t="n">
         <v>108</v>
@@ -1578,34 +1578,34 @@
         <v>11.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>11.31045353761016</v>
+        <v>11.31045353680068</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.007359601509549473</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="I14" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.9837740606111255</v>
+        <v>-0.9837740604113528</v>
       </c>
       <c r="K14" t="n">
-        <v>1.056971515400164</v>
+        <v>1.056971515369315</v>
       </c>
       <c r="L14" t="n">
-        <v>4.244294198299304e-14</v>
+        <v>9.104860425090759e-14</v>
       </c>
       <c r="M14" t="n">
-        <v>-8.740304448730435e-14</v>
+        <v>-1.087222126487223e-13</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2972072076323288</v>
+        <v>0.2972072076325549</v>
       </c>
       <c r="O14" t="n">
-        <v>-4.676691678951987e-16</v>
+        <v>1.886396643610885e-16</v>
       </c>
       <c r="P14" t="n">
         <v>46.76991150442478</v>
@@ -1629,10 +1629,10 @@
         <v>0.4062293914990521</v>
       </c>
       <c r="W14" t="n">
-        <v>-11.31045353761016</v>
+        <v>-11.31045353680068</v>
       </c>
       <c r="X14" t="n">
-        <v>1.458514864465165</v>
+        <v>1.45851486437476</v>
       </c>
       <c r="Y14" t="n">
         <v>113</v>
@@ -1661,34 +1661,34 @@
         <v>16.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>15.80674358694398</v>
+        <v>15.80675201882838</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009826763377500766</v>
+        <v>-0.009828890673531106</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.05093245158564415</v>
+        <v>-0.05093415708189181</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.200344179150232</v>
+        <v>-1.200347896147784</v>
       </c>
       <c r="K15" t="n">
-        <v>1.238768555917368</v>
+        <v>1.238771619136773</v>
       </c>
       <c r="L15" t="n">
-        <v>2.624438774657302e-14</v>
+        <v>1.926007562802203e-14</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.158997397918968e-14</v>
+        <v>-3.188639664521692e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3924330671560307</v>
+        <v>0.3924330679510767</v>
       </c>
       <c r="O15" t="n">
-        <v>-1.846089855822987e-15</v>
+        <v>5.743798457978083e-16</v>
       </c>
       <c r="P15" t="n">
         <v>45.09090909090909</v>
@@ -1712,10 +1712,10 @@
         <v>0.4900598872796373</v>
       </c>
       <c r="W15" t="n">
-        <v>-15.80674358694398</v>
+        <v>-15.80675201882838</v>
       </c>
       <c r="X15" t="n">
-        <v>1.609215929095408</v>
+        <v>1.609219094934456</v>
       </c>
       <c r="Y15" t="n">
         <v>121</v>
@@ -1744,34 +1744,34 @@
         <v>21.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>20.8148706004744</v>
+        <v>20.81487112913656</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01293975780441944</v>
+        <v>-0.01293991362958175</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.04698048052184928</v>
+        <v>-0.04698060593178344</v>
       </c>
       <c r="I16" t="n">
-        <v>22.14348712706708</v>
+        <v>22.14348801756694</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.328616526592681</v>
+        <v>-1.328616888430377</v>
       </c>
       <c r="K16" t="n">
-        <v>1.366140559019288</v>
+        <v>1.366140850689235</v>
       </c>
       <c r="L16" t="n">
-        <v>7.06721503024181e-14</v>
+        <v>6.064098405162855e-14</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.073387718071702e-14</v>
+        <v>-2.44627746139112e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4972432997713824</v>
+        <v>0.4972433001428334</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27030169329204e-15</v>
+        <v>4.681870739504537e-16</v>
       </c>
       <c r="P16" t="n">
         <v>40.27906976744186</v>
@@ -1795,10 +1795,10 @@
         <v>0.6144326302390232</v>
       </c>
       <c r="W16" t="n">
-        <v>-20.8148706004744</v>
+        <v>-20.81487112913656</v>
       </c>
       <c r="X16" t="n">
-        <v>1.730873454792027</v>
+        <v>1.730873823770813</v>
       </c>
       <c r="Y16" t="n">
         <v>129</v>
@@ -1827,34 +1827,34 @@
         <v>26.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>26.23145393174554</v>
+        <v>26.23145393098245</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0198440218284756</v>
+        <v>-0.01984402157891904</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03645144604519435</v>
+        <v>-0.03645144584507054</v>
       </c>
       <c r="I17" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.613727902640053</v>
+        <v>-1.613727901993585</v>
       </c>
       <c r="K17" t="n">
-        <v>1.616847795356204</v>
+        <v>1.616847794709916</v>
       </c>
       <c r="L17" t="n">
-        <v>-3.384817678667415e-14</v>
+        <v>-7.266611554903399e-14</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.213777184821458e-13</v>
+        <v>-3.229739708000456e-14</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4933142727760689</v>
+        <v>0.4933142727755519</v>
       </c>
       <c r="O17" t="n">
-        <v>2.305226716585325e-15</v>
+        <v>3.106605881632938e-15</v>
       </c>
       <c r="P17" t="n">
         <v>36.31818181818182</v>
@@ -1878,10 +1878,10 @@
         <v>0.6904013650499269</v>
       </c>
       <c r="W17" t="n">
-        <v>-26.23145393174554</v>
+        <v>-26.23145393098245</v>
       </c>
       <c r="X17" t="n">
-        <v>1.958968205659446</v>
+        <v>1.958968204994596</v>
       </c>
       <c r="Y17" t="n">
         <v>110</v>
@@ -1910,34 +1910,34 @@
         <v>31.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>31.0331303253001</v>
+        <v>31.03313032432146</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01700462157504085</v>
+        <v>-0.01700462130075263</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02774809075181531</v>
+        <v>-0.02774809052601302</v>
       </c>
       <c r="I18" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.599641397844666</v>
+        <v>-1.599641397224152</v>
       </c>
       <c r="K18" t="n">
-        <v>1.652579053780485</v>
+        <v>1.652579053209186</v>
       </c>
       <c r="L18" t="n">
-        <v>2.409078227910435e-14</v>
+        <v>2.573074028976494e-15</v>
       </c>
       <c r="M18" t="n">
-        <v>-4.886038663612236e-14</v>
+        <v>2.450526554163108e-14</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5278659890770342</v>
+        <v>0.5278659890769668</v>
       </c>
       <c r="O18" t="n">
-        <v>-2.495358417252733e-16</v>
+        <v>4.550857045701594e-15</v>
       </c>
       <c r="P18" t="n">
         <v>38.6952380952381</v>
@@ -1961,10 +1961,10 @@
         <v>0.7352264069547201</v>
       </c>
       <c r="W18" t="n">
-        <v>-31.0331303253001</v>
+        <v>-31.03313032432146</v>
       </c>
       <c r="X18" t="n">
-        <v>2.003459205954794</v>
+        <v>2.003459205373089</v>
       </c>
       <c r="Y18" t="n">
         <v>105</v>
@@ -1993,34 +1993,34 @@
         <v>36.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>35.97587864235943</v>
+        <v>35.97587754455507</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="I19" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.717036183820818</v>
+        <v>-1.717035685211709</v>
       </c>
       <c r="K19" t="n">
-        <v>1.791617171432684</v>
+        <v>1.791616813467029</v>
       </c>
       <c r="L19" t="n">
-        <v>4.952043264787643e-14</v>
+        <v>-1.214516702696005e-15</v>
       </c>
       <c r="M19" t="n">
-        <v>-2.209911546687109e-14</v>
+        <v>-6.41462192005646e-16</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6098588409759123</v>
+        <v>0.6098588412828301</v>
       </c>
       <c r="O19" t="n">
-        <v>3.157967714489334e-15</v>
+        <v>-1.861586081694707e-15</v>
       </c>
       <c r="P19" t="n">
         <v>40.66666666666666</v>
@@ -2044,10 +2044,10 @@
         <v>0.8227231249678147</v>
       </c>
       <c r="W19" t="n">
-        <v>-35.97587864235943</v>
+        <v>-35.97587754455507</v>
       </c>
       <c r="X19" t="n">
-        <v>2.204202810991754</v>
+        <v>2.204202367078846</v>
       </c>
       <c r="Y19" t="n">
         <v>99</v>
@@ -2076,34 +2076,34 @@
         <v>41.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>41.07145186897364</v>
+        <v>41.07145186077247</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="I20" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.367514488892353</v>
+        <v>-1.367514485639618</v>
       </c>
       <c r="K20" t="n">
-        <v>1.421225809627208</v>
+        <v>1.421225807339754</v>
       </c>
       <c r="L20" t="n">
-        <v>1.697700360706468e-14</v>
+        <v>-8.364307363489527e-16</v>
       </c>
       <c r="M20" t="n">
-        <v>-6.334998439199044e-14</v>
+        <v>-1.689326644673278e-15</v>
       </c>
       <c r="N20" t="n">
-        <v>0.622439657409577</v>
+        <v>0.6224396574054814</v>
       </c>
       <c r="O20" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.053771006423877e-15</v>
       </c>
       <c r="P20" t="n">
         <v>46.08474576271186</v>
@@ -2127,10 +2127,10 @@
         <v>0.7792026098777097</v>
       </c>
       <c r="W20" t="n">
-        <v>-41.07145186897364</v>
+        <v>-41.07145186077247</v>
       </c>
       <c r="X20" t="n">
-        <v>1.841780533791043</v>
+        <v>1.841780530010432</v>
       </c>
       <c r="Y20" t="n">
         <v>59</v>
@@ -2159,34 +2159,34 @@
         <v>46.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>46.40557098219264</v>
+        <v>46.40557869458702</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="I21" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.333483650928112</v>
+        <v>-1.333486982843637</v>
       </c>
       <c r="K21" t="n">
-        <v>1.40915395977803</v>
+        <v>1.409156562362585</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.330464558372731e-14</v>
+        <v>-3.535333401688809e-14</v>
       </c>
       <c r="M21" t="n">
-        <v>6.664510213535583e-14</v>
+        <v>-8.490562750228579e-15</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6185158512685112</v>
+        <v>0.6185158529869388</v>
       </c>
       <c r="O21" t="n">
-        <v>2.045982431094931e-15</v>
+        <v>2.183438615096141e-15</v>
       </c>
       <c r="P21" t="n">
         <v>50.5</v>
@@ -2210,10 +2210,10 @@
         <v>0.8261952732038851</v>
       </c>
       <c r="W21" t="n">
-        <v>-46.40557098219264</v>
+        <v>-46.40557869458702</v>
       </c>
       <c r="X21" t="n">
-        <v>1.685021605177648</v>
+        <v>1.685025599565014</v>
       </c>
       <c r="Y21" t="n">
         <v>42</v>
@@ -2242,34 +2242,34 @@
         <v>51.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>51.80239757505231</v>
+        <v>51.80239795442947</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="I22" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.469751311077852</v>
+        <v>-1.469751506545473</v>
       </c>
       <c r="K22" t="n">
-        <v>1.612516225768224</v>
+        <v>1.612516353603398</v>
       </c>
       <c r="L22" t="n">
-        <v>-6.145684561854093e-14</v>
+        <v>-7.162438810216888e-14</v>
       </c>
       <c r="M22" t="n">
-        <v>5.490803007463713e-14</v>
+        <v>3.843021996726133e-14</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6023453553380396</v>
+        <v>0.6023453553475347</v>
       </c>
       <c r="O22" t="n">
-        <v>3.060614824642324e-15</v>
+        <v>-9.541916806237832e-16</v>
       </c>
       <c r="P22" t="n">
         <v>48.02702702702702</v>
@@ -2293,10 +2293,10 @@
         <v>0.7386031959233379</v>
       </c>
       <c r="W22" t="n">
-        <v>-51.80239757505231</v>
+        <v>-51.80239795442947</v>
       </c>
       <c r="X22" t="n">
-        <v>1.855829616046959</v>
+        <v>1.855829813438491</v>
       </c>
       <c r="Y22" t="n">
         <v>37</v>

--- a/publication/analyses/outputs/rmse_z/gdpt_bin-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_bin-z_rmse-z.xlsx
@@ -582,34 +582,34 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.90071407434353</v>
+        <v>-46.90071407306742</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="J2" t="n">
-        <v>0.907569210053673</v>
+        <v>0.9075692087444458</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9608092746021052</v>
+        <v>0.9608092735508682</v>
       </c>
       <c r="L2" t="n">
-        <v>3.278241875490393e-14</v>
+        <v>-1.658549840676137e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>1.075744431804853e-13</v>
+        <v>-4.242902325775807e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7230257105471586</v>
+        <v>0.7230257105477355</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.973729821555834e-16</v>
+        <v>-2.152599086634331e-15</v>
       </c>
       <c r="P2" t="n">
         <v>42.55555555555556</v>
@@ -633,10 +633,10 @@
         <v>1.140570364444535</v>
       </c>
       <c r="W2" t="n">
-        <v>46.90071407434353</v>
+        <v>46.90071407306742</v>
       </c>
       <c r="X2" t="n">
-        <v>1.086478884943651</v>
+        <v>1.086478883724735</v>
       </c>
       <c r="Y2" t="n">
         <v>36</v>
@@ -665,34 +665,34 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-42.49901262118796</v>
+        <v>-42.49901276572281</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.1463583685033</v>
       </c>
       <c r="J3" t="n">
-        <v>0.647345482307244</v>
+        <v>0.6473456027804754</v>
       </c>
       <c r="K3" t="n">
-        <v>0.852300498791593</v>
+        <v>0.8523005922998895</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.450783937428923e-14</v>
+        <v>-2.68679523074411e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.277378368693462e-15</v>
+        <v>-2.756461725539339e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7089378535682226</v>
+        <v>0.7089378534520372</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.552713678800501e-15</v>
+        <v>-4.973799150320701e-15</v>
       </c>
       <c r="P3" t="n">
         <v>43.82</v>
@@ -716,10 +716,10 @@
         <v>1.144437259785718</v>
       </c>
       <c r="W3" t="n">
-        <v>42.49901262118796</v>
+        <v>42.49901276572281</v>
       </c>
       <c r="X3" t="n">
-        <v>1.065966254091531</v>
+        <v>1.065966370929737</v>
       </c>
       <c r="Y3" t="n">
         <v>50</v>
@@ -748,34 +748,34 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.18989773401302</v>
+        <v>-37.18989786550043</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="I4" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4952923604619567</v>
+        <v>0.4952925482689416</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7227065295509827</v>
+        <v>0.7227066767968906</v>
       </c>
       <c r="L4" t="n">
-        <v>4.54224200340012e-14</v>
+        <v>5.890910654904997e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>-3.208376325556911e-14</v>
+        <v>3.928843782294721e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>0.632436883213081</v>
+        <v>0.6324368831120847</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.944572449191941e-15</v>
+        <v>3.297025951917132e-16</v>
       </c>
       <c r="P4" t="n">
         <v>37.96969696969697</v>
@@ -799,10 +799,10 @@
         <v>1.051293417977728</v>
       </c>
       <c r="W4" t="n">
-        <v>37.18989773401302</v>
+        <v>37.18989786550043</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9050269073473143</v>
+        <v>0.9050270838160985</v>
       </c>
       <c r="Y4" t="n">
         <v>66</v>
@@ -831,34 +831,34 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-32.50493494401351</v>
+        <v>-32.50493562948445</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205193</v>
       </c>
       <c r="I5" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4789453883566043</v>
+        <v>0.4789468901678061</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9101096607550138</v>
+        <v>0.9101105008764802</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.056097788215485e-15</v>
+        <v>-4.270240075521953e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.825540913179343e-14</v>
+        <v>-1.870904864723167e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5023650703927995</v>
+        <v>0.5023650695151022</v>
       </c>
       <c r="O5" t="n">
-        <v>-4.643836092249311e-15</v>
+        <v>-3.698355839020145e-15</v>
       </c>
       <c r="P5" t="n">
         <v>32.72043010752688</v>
@@ -882,10 +882,10 @@
         <v>0.9938816832455084</v>
       </c>
       <c r="W5" t="n">
-        <v>32.50493494401351</v>
+        <v>32.50493562948445</v>
       </c>
       <c r="X5" t="n">
-        <v>1.19346277617972</v>
+        <v>1.193464176148246</v>
       </c>
       <c r="Y5" t="n">
         <v>93</v>
@@ -914,34 +914,34 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.20884603062486</v>
+        <v>-28.20884846822833</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452422</v>
       </c>
       <c r="I6" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2011097341234664</v>
+        <v>0.201113972180129</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6790995764689738</v>
+        <v>0.679101322978637</v>
       </c>
       <c r="L6" t="n">
-        <v>2.090103689251428e-15</v>
+        <v>6.381795963143728e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>-3.826459846146802e-15</v>
+        <v>-2.940104586805742e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4437365204152499</v>
+        <v>0.4437365194155193</v>
       </c>
       <c r="O6" t="n">
-        <v>6.092620961116974e-15</v>
+        <v>1.029133205669692e-15</v>
       </c>
       <c r="P6" t="n">
         <v>33.80392156862745</v>
@@ -965,10 +965,10 @@
         <v>0.8344419590491764</v>
       </c>
       <c r="W6" t="n">
-        <v>28.20884603062486</v>
+        <v>28.20884846822833</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8988783687335677</v>
+        <v>0.8988822621279053</v>
       </c>
       <c r="Y6" t="n">
         <v>102</v>
@@ -997,34 +997,34 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-22.7248436800634</v>
+        <v>-22.72484366097599</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05995685834723149</v>
+        <v>-0.05995686877634832</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1428537280719182</v>
+        <v>0.1428536730286497</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7009225949099905</v>
+        <v>0.7009225642818855</v>
       </c>
       <c r="L7" t="n">
-        <v>-7.846889207702813e-14</v>
+        <v>-7.838174553853605e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>7.525819871710409e-14</v>
+        <v>8.27522041333239e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3774330828518451</v>
+        <v>0.3774330828568553</v>
       </c>
       <c r="O7" t="n">
-        <v>4.297637514678025e-17</v>
+        <v>-4.665324279822701e-15</v>
       </c>
       <c r="P7" t="n">
         <v>30.19354838709678</v>
@@ -1048,10 +1048,10 @@
         <v>0.7572030678730236</v>
       </c>
       <c r="W7" t="n">
-        <v>22.7248436800634</v>
+        <v>22.72484366097599</v>
       </c>
       <c r="X7" t="n">
-        <v>0.904982653612655</v>
+        <v>0.9049826105995135</v>
       </c>
       <c r="Y7" t="n">
         <v>93</v>
@@ -1080,34 +1080,34 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.28368565933159</v>
+        <v>-18.28368565799308</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.07848169086044438</v>
+        <v>-0.07848169260577564</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7492642664811668</v>
+        <v>0.7492642653564749</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.067790096913336e-13</v>
+        <v>-1.039115277004382e-13</v>
       </c>
       <c r="M8" t="n">
-        <v>-8.663100817747105e-14</v>
+        <v>-3.448407461722042e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>0.231140189099931</v>
+        <v>0.2311401890995518</v>
       </c>
       <c r="O8" t="n">
-        <v>3.361734947500302e-15</v>
+        <v>-4.229033025911606e-15</v>
       </c>
       <c r="P8" t="n">
         <v>37.70642201834863</v>
@@ -1131,10 +1131,10 @@
         <v>0.6144610128828072</v>
       </c>
       <c r="W8" t="n">
-        <v>18.28368565933159</v>
+        <v>18.28368565799308</v>
       </c>
       <c r="X8" t="n">
-        <v>0.967643176937761</v>
+        <v>0.9676431755020193</v>
       </c>
       <c r="Y8" t="n">
         <v>109</v>
@@ -1163,34 +1163,34 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.91219990536995</v>
+        <v>-13.91219992808339</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3768175966832853</v>
+        <v>-0.3768175663506446</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9625138414884757</v>
+        <v>0.9625138567076422</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.246037171747734e-14</v>
+        <v>-4.359930495730291e-14</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.469234338711041e-14</v>
+        <v>-2.15011624324122e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2258173219790544</v>
+        <v>0.2258173220181406</v>
       </c>
       <c r="O9" t="n">
-        <v>3.097334065310182e-15</v>
+        <v>6.774242184153497e-16</v>
       </c>
       <c r="P9" t="n">
         <v>39.04237288135593</v>
@@ -1214,10 +1214,10 @@
         <v>0.5599065373738429</v>
       </c>
       <c r="W9" t="n">
-        <v>13.91219990536995</v>
+        <v>13.91219992808339</v>
       </c>
       <c r="X9" t="n">
-        <v>1.296483144074149</v>
+        <v>1.29648316256639</v>
       </c>
       <c r="Y9" t="n">
         <v>118</v>
@@ -1246,34 +1246,34 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.770071526302958</v>
+        <v>-8.770071228664136</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.3577045452414243</v>
+        <v>-0.3577051367530501</v>
       </c>
       <c r="K10" t="n">
-        <v>1.205105867035409</v>
+        <v>1.205105689497002</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.066381254140791e-14</v>
+        <v>-6.870572487007218e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>7.220378141535268e-14</v>
+        <v>6.553390309048923e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1805732885291025</v>
+        <v>0.180573288169993</v>
       </c>
       <c r="O10" t="n">
-        <v>-3.356289605212973e-16</v>
+        <v>-1.645692129578982e-15</v>
       </c>
       <c r="P10" t="n">
         <v>37.22307692307692</v>
@@ -1297,10 +1297,10 @@
         <v>0.3816975259745489</v>
       </c>
       <c r="W10" t="n">
-        <v>8.770071526302958</v>
+        <v>8.770071228664136</v>
       </c>
       <c r="X10" t="n">
-        <v>1.455510498652382</v>
+        <v>1.455510263307327</v>
       </c>
       <c r="Y10" t="n">
         <v>130</v>
@@ -1329,34 +1329,34 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.065921730769785</v>
+        <v>-5.065921732154432</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.9038058578128501</v>
+        <v>-0.9038058563641647</v>
       </c>
       <c r="K11" t="n">
-        <v>1.674295515759601</v>
+        <v>1.674295516301576</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.09277040141842e-14</v>
+        <v>-6.201604886190249e-15</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.004457206277783e-15</v>
+        <v>5.903762327493082e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>0.14628280813259</v>
+        <v>0.146282808135019</v>
       </c>
       <c r="O11" t="n">
-        <v>9.406301495282967e-16</v>
+        <v>3.270111454350461e-16</v>
       </c>
       <c r="P11" t="n">
         <v>41.31818181818182</v>
@@ -1380,10 +1380,10 @@
         <v>0.1671242412065151</v>
       </c>
       <c r="W11" t="n">
-        <v>5.065921730769785</v>
+        <v>5.065921732154432</v>
       </c>
       <c r="X11" t="n">
-        <v>1.998694583377929</v>
+        <v>1.998694583952622</v>
       </c>
       <c r="Y11" t="n">
         <v>110</v>
@@ -1412,34 +1412,34 @@
         <v>1.900000000000006</v>
       </c>
       <c r="F12" t="n">
-        <v>1.289469911342609</v>
+        <v>1.28946995437142</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="I12" t="n">
         <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.2105300886573907</v>
+        <v>-0.2105300456285799</v>
       </c>
       <c r="K12" t="n">
-        <v>1.713734456345382</v>
+        <v>1.713734448805476</v>
       </c>
       <c r="L12" t="n">
-        <v>1.638877053719095e-15</v>
+        <v>-4.262956673225297e-14</v>
       </c>
       <c r="M12" t="n">
-        <v>-1.413757621930795e-13</v>
+        <v>-1.546259341277895e-13</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1229747540277094</v>
+        <v>0.1229747540293443</v>
       </c>
       <c r="O12" t="n">
-        <v>-2.869964281343942e-17</v>
+        <v>-1.586032892321652e-16</v>
       </c>
       <c r="P12" t="n">
         <v>46.10204081632653</v>
@@ -1463,10 +1463,10 @@
         <v>0.08772845719953289</v>
       </c>
       <c r="W12" t="n">
-        <v>-1.289469911342609</v>
+        <v>-1.28946995437142</v>
       </c>
       <c r="X12" t="n">
-        <v>2.356873246789299</v>
+        <v>2.3568732436736</v>
       </c>
       <c r="Y12" t="n">
         <v>147</v>
@@ -1495,34 +1495,34 @@
         <v>6.900000000000006</v>
       </c>
       <c r="F13" t="n">
-        <v>6.266041560871217</v>
+        <v>6.266042059477416</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="I13" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.6175483155970837</v>
+        <v>-0.617548512878598</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9885469713755433</v>
+        <v>0.9885469851722456</v>
       </c>
       <c r="L13" t="n">
-        <v>1.612136350341113e-14</v>
+        <v>9.077872198804261e-15</v>
       </c>
       <c r="M13" t="n">
-        <v>6.255592751621727e-14</v>
+        <v>1.83122550045522e-15</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1714584248063471</v>
+        <v>0.1714584245617381</v>
       </c>
       <c r="O13" t="n">
-        <v>4.913764868248378e-16</v>
+        <v>-6.764136575956972e-16</v>
       </c>
       <c r="P13" t="n">
         <v>45.13888888888889</v>
@@ -1546,10 +1546,10 @@
         <v>0.248130177836569</v>
       </c>
       <c r="W13" t="n">
-        <v>-6.266041560871217</v>
+        <v>-6.266042059477416</v>
       </c>
       <c r="X13" t="n">
-        <v>1.25690265123595</v>
+        <v>1.256902663748283</v>
       </c>
       <c r="Y13" t="n">
         <v>108</v>
@@ -1578,34 +1578,34 @@
         <v>11.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>11.31045353680068</v>
+        <v>11.31045246876112</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="I14" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.9837740604113528</v>
+        <v>-0.9837738003266121</v>
       </c>
       <c r="K14" t="n">
-        <v>1.056971515369315</v>
+        <v>1.056971475429078</v>
       </c>
       <c r="L14" t="n">
-        <v>9.104860425090759e-14</v>
+        <v>7.8102224785876e-14</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.087222126487223e-13</v>
+        <v>-8.130467783788104e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2972072076325549</v>
+        <v>0.2972072079531026</v>
       </c>
       <c r="O14" t="n">
-        <v>1.886396643610885e-16</v>
+        <v>5.875339546246403e-16</v>
       </c>
       <c r="P14" t="n">
         <v>46.76991150442478</v>
@@ -1629,10 +1629,10 @@
         <v>0.4062293914990521</v>
       </c>
       <c r="W14" t="n">
-        <v>-11.31045353680068</v>
+        <v>-11.31045246876112</v>
       </c>
       <c r="X14" t="n">
-        <v>1.45851486437476</v>
+        <v>1.458514744441135</v>
       </c>
       <c r="Y14" t="n">
         <v>113</v>
@@ -1661,34 +1661,34 @@
         <v>16.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>15.80675201882838</v>
+        <v>15.80675201756982</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009828890673531106</v>
+        <v>-0.009828890355805593</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.05093415708189181</v>
+        <v>-0.05093415682757337</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.200347896147784</v>
+        <v>-1.200347895592979</v>
       </c>
       <c r="K15" t="n">
-        <v>1.238771619136773</v>
+        <v>1.238771618679404</v>
       </c>
       <c r="L15" t="n">
-        <v>1.926007562802203e-14</v>
+        <v>4.78015239879414e-14</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.188639664521692e-14</v>
+        <v>-4.961590137823661e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3924330679510767</v>
+        <v>0.3924330679509493</v>
       </c>
       <c r="O15" t="n">
-        <v>5.743798457978083e-16</v>
+        <v>-4.395015114011984e-15</v>
       </c>
       <c r="P15" t="n">
         <v>45.09090909090909</v>
@@ -1712,10 +1712,10 @@
         <v>0.4900598872796373</v>
       </c>
       <c r="W15" t="n">
-        <v>-15.80675201882838</v>
+        <v>-15.80675201756982</v>
       </c>
       <c r="X15" t="n">
-        <v>1.609219094934456</v>
+        <v>1.609219094461356</v>
       </c>
       <c r="Y15" t="n">
         <v>121</v>
@@ -1744,34 +1744,34 @@
         <v>21.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>20.81487112913656</v>
+        <v>20.81487078235635</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01293991362958175</v>
+        <v>-0.01293981147098387</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.04698060593178344</v>
+        <v>-0.04698052362038095</v>
       </c>
       <c r="I16" t="n">
-        <v>22.14348801756694</v>
+        <v>22.14348743371205</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.328616888430377</v>
+        <v>-1.328616651355705</v>
       </c>
       <c r="K16" t="n">
-        <v>1.366140850689235</v>
+        <v>1.366140659618182</v>
       </c>
       <c r="L16" t="n">
-        <v>6.064098405162855e-14</v>
+        <v>1.559002711594759e-14</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.44627746139112e-14</v>
+        <v>-2.445502887187893e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4972433001428334</v>
+        <v>0.4972432998997279</v>
       </c>
       <c r="O16" t="n">
-        <v>4.681870739504537e-16</v>
+        <v>-1.141205992754231e-15</v>
       </c>
       <c r="P16" t="n">
         <v>40.27906976744186</v>
@@ -1795,10 +1795,10 @@
         <v>0.6144326302390232</v>
       </c>
       <c r="W16" t="n">
-        <v>-20.81487112913656</v>
+        <v>-20.81487078235635</v>
       </c>
       <c r="X16" t="n">
-        <v>1.730873823770813</v>
+        <v>1.730873582082004</v>
       </c>
       <c r="Y16" t="n">
         <v>129</v>
@@ -1827,34 +1827,34 @@
         <v>26.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>26.23145393098245</v>
+        <v>26.23145393252479</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01984402157891904</v>
+        <v>-0.01984402208628273</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03645144584507054</v>
+        <v>-0.0364514462480472</v>
       </c>
       <c r="I17" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.613727901993585</v>
+        <v>-1.613727903336318</v>
       </c>
       <c r="K17" t="n">
-        <v>1.616847794709916</v>
+        <v>1.616847796049888</v>
       </c>
       <c r="L17" t="n">
-        <v>-7.266611554903399e-14</v>
+        <v>-3.145463687494818e-14</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.229739708000456e-14</v>
+        <v>-4.327857516805978e-14</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4933142727755519</v>
+        <v>0.4933142727764495</v>
       </c>
       <c r="O17" t="n">
-        <v>3.106605881632938e-15</v>
+        <v>7.684761917723584e-15</v>
       </c>
       <c r="P17" t="n">
         <v>36.31818181818182</v>
@@ -1878,10 +1878,10 @@
         <v>0.6904013650499269</v>
       </c>
       <c r="W17" t="n">
-        <v>-26.23145393098245</v>
+        <v>-26.23145393252479</v>
       </c>
       <c r="X17" t="n">
-        <v>1.958968204994596</v>
+        <v>1.958968206372844</v>
       </c>
       <c r="Y17" t="n">
         <v>110</v>
@@ -1910,34 +1910,34 @@
         <v>31.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>31.03313032432146</v>
+        <v>31.03312749021692</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01700462130075263</v>
+        <v>-0.01700381395843612</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02774809052601302</v>
+        <v>-0.02774744443859951</v>
       </c>
       <c r="I18" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.599641397224152</v>
+        <v>-1.599639625710677</v>
       </c>
       <c r="K18" t="n">
-        <v>1.652579053209186</v>
+        <v>1.652577411634484</v>
       </c>
       <c r="L18" t="n">
-        <v>2.573074028976494e-15</v>
+        <v>2.517510009982159e-14</v>
       </c>
       <c r="M18" t="n">
-        <v>2.450526554163108e-14</v>
+        <v>-4.081391309574385e-16</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5278659890769668</v>
+        <v>0.5278659885051277</v>
       </c>
       <c r="O18" t="n">
-        <v>4.550857045701594e-15</v>
+        <v>8.636477776322169e-15</v>
       </c>
       <c r="P18" t="n">
         <v>38.6952380952381</v>
@@ -1961,10 +1961,10 @@
         <v>0.7352264069547201</v>
       </c>
       <c r="W18" t="n">
-        <v>-31.03313032432146</v>
+        <v>-31.03312749021692</v>
       </c>
       <c r="X18" t="n">
-        <v>2.003459205373089</v>
+        <v>2.003457518657735</v>
       </c>
       <c r="Y18" t="n">
         <v>105</v>
@@ -1993,34 +1993,34 @@
         <v>36.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>35.97587754455507</v>
+        <v>35.97588651205509</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="I19" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.717035685211709</v>
+        <v>-1.717039805829286</v>
       </c>
       <c r="K19" t="n">
-        <v>1.791616813467029</v>
+        <v>1.791619779202059</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.214516702696005e-15</v>
+        <v>3.574077061244046e-14</v>
       </c>
       <c r="M19" t="n">
-        <v>-6.41462192005646e-16</v>
+        <v>-1.542649285529662e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6098588412828301</v>
+        <v>0.6098588388645073</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.861586081694707e-15</v>
+        <v>1.244346937499064e-14</v>
       </c>
       <c r="P19" t="n">
         <v>40.66666666666666</v>
@@ -2044,10 +2044,10 @@
         <v>0.8227231249678147</v>
       </c>
       <c r="W19" t="n">
-        <v>-35.97587754455507</v>
+        <v>-35.97588651205509</v>
       </c>
       <c r="X19" t="n">
-        <v>2.204202367078846</v>
+        <v>2.204206046994803</v>
       </c>
       <c r="Y19" t="n">
         <v>99</v>
@@ -2076,34 +2076,34 @@
         <v>41.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>41.07145186077247</v>
+        <v>41.07145186154548</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="I20" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.367514485639618</v>
+        <v>-1.367514485939611</v>
       </c>
       <c r="K20" t="n">
-        <v>1.421225807339754</v>
+        <v>1.421225807548584</v>
       </c>
       <c r="L20" t="n">
-        <v>-8.364307363489527e-16</v>
+        <v>5.648777114613996e-14</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.689326644673278e-15</v>
+        <v>-5.539354286000516e-15</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6224396574054814</v>
+        <v>0.6224396574057592</v>
       </c>
       <c r="O20" t="n">
-        <v>1.053771006423877e-15</v>
+        <v>-1.915605150963406e-15</v>
       </c>
       <c r="P20" t="n">
         <v>46.08474576271186</v>
@@ -2127,10 +2127,10 @@
         <v>0.7792026098777097</v>
       </c>
       <c r="W20" t="n">
-        <v>-41.07145186077247</v>
+        <v>-41.07145186154548</v>
       </c>
       <c r="X20" t="n">
-        <v>1.841780530010432</v>
+        <v>1.841780530352469</v>
       </c>
       <c r="Y20" t="n">
         <v>59</v>
@@ -2159,34 +2159,34 @@
         <v>46.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>46.40557869458702</v>
+        <v>46.40557239355888</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="I21" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.333486982843637</v>
+        <v>-1.333484261473413</v>
       </c>
       <c r="K21" t="n">
-        <v>1.409156562362585</v>
+        <v>1.409154436706607</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.535333401688809e-14</v>
+        <v>-5.768533798781543e-14</v>
       </c>
       <c r="M21" t="n">
-        <v>-8.490562750228579e-15</v>
+        <v>1.725603786845957e-14</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6185158529869388</v>
+        <v>0.6185158515820539</v>
       </c>
       <c r="O21" t="n">
-        <v>2.183438615096141e-15</v>
+        <v>-5.445379596971006e-16</v>
       </c>
       <c r="P21" t="n">
         <v>50.5</v>
@@ -2210,10 +2210,10 @@
         <v>0.8261952732038851</v>
       </c>
       <c r="W21" t="n">
-        <v>-46.40557869458702</v>
+        <v>-46.40557239355888</v>
       </c>
       <c r="X21" t="n">
-        <v>1.685025599565014</v>
+        <v>1.685022336423496</v>
       </c>
       <c r="Y21" t="n">
         <v>42</v>
@@ -2242,34 +2242,34 @@
         <v>51.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>51.80239795442947</v>
+        <v>51.80239796286423</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="I22" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.469751506545473</v>
+        <v>-1.469751510895582</v>
       </c>
       <c r="K22" t="n">
-        <v>1.612516353603398</v>
+        <v>1.612516356448468</v>
       </c>
       <c r="L22" t="n">
-        <v>-7.162438810216888e-14</v>
+        <v>-4.704270006572175e-14</v>
       </c>
       <c r="M22" t="n">
-        <v>3.843021996726133e-14</v>
+        <v>4.685741284472012e-14</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6023453553475347</v>
+        <v>0.6023453553477488</v>
       </c>
       <c r="O22" t="n">
-        <v>-9.541916806237832e-16</v>
+        <v>-9.3618806400824e-16</v>
       </c>
       <c r="P22" t="n">
         <v>48.02702702702702</v>
@@ -2293,10 +2293,10 @@
         <v>0.7386031959233379</v>
       </c>
       <c r="W22" t="n">
-        <v>-51.80239795442947</v>
+        <v>-51.80239796286423</v>
       </c>
       <c r="X22" t="n">
-        <v>1.855829813438491</v>
+        <v>1.855829817831145</v>
       </c>
       <c r="Y22" t="n">
         <v>37</v>
